--- a/Spreadsheets/taunt_standard_format.xlsx
+++ b/Spreadsheets/taunt_standard_format.xlsx
@@ -364,7 +364,7 @@
     <t>[x]&lt;b&gt;Taunt&lt;/b&gt;\n&lt;b&gt;Deathrattle:&lt;/b&gt; Summon a 0/5\nVault Safe with &lt;b&gt;Taunt&lt;/b&gt;.</t>
   </si>
   <si>
-    <t>[x]&lt;b&gt;Taunt&lt;/b&gt;\nWhen you draw this, restore\n4 Health to your hero.</t>
+    <t>[x]&lt;b&gt;Taunt&lt;/b&gt;\nWhen you draw this, restore\n#4 Health to your hero.</t>
   </si>
   <si>
     <t>[x]&lt;b&gt;Taunt&lt;/b&gt;\n&lt;b&gt;Deathrattle:&lt;/b&gt; Deal 3 damage\nto all minions.</t>
